--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
@@ -391,13 +391,13 @@
         <v>0.5590528895766358</v>
       </c>
       <c r="C2">
-        <v>0.463517911363077</v>
+        <v>0.4635179113630769</v>
       </c>
       <c r="D2">
         <v>0.4739302127192875</v>
       </c>
       <c r="E2">
-        <v>0.5055372562741492</v>
+        <v>0.5055372562741491</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,10 +408,10 @@
         <v>0.6775003061548949</v>
       </c>
       <c r="C3">
-        <v>0.5735379138762114</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="D3">
-        <v>0.590332082532357</v>
+        <v>0.5903320825323572</v>
       </c>
       <c r="E3">
         <v>0.6306784763381318</v>
@@ -448,7 +448,7 @@
         <v>0.3963684375892778</v>
       </c>
       <c r="E5">
-        <v>0.4375004993603231</v>
+        <v>0.437500499360323</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,10 +476,10 @@
         <v>0.7230411760821516</v>
       </c>
       <c r="C7">
-        <v>0.6320165467849841</v>
+        <v>0.632016546784984</v>
       </c>
       <c r="D7">
-        <v>0.6517028402934478</v>
+        <v>0.6517028402934479</v>
       </c>
       <c r="E7">
         <v>0.6791502005582215</v>
@@ -493,10 +493,10 @@
         <v>0.7230411760821516</v>
       </c>
       <c r="C8">
-        <v>0.6320165467849841</v>
+        <v>0.6320165467849839</v>
       </c>
       <c r="D8">
-        <v>0.6517028402934478</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E8">
         <v>0.6791502005582215</v>
@@ -510,10 +510,10 @@
         <v>0.7855343176917412</v>
       </c>
       <c r="C9">
-        <v>0.7035364694753985</v>
+        <v>0.7035364694753984</v>
       </c>
       <c r="D9">
-        <v>0.7115291411962384</v>
+        <v>0.7115291411962386</v>
       </c>
       <c r="E9">
         <v>0.7299012595514014</v>
@@ -527,10 +527,10 @@
         <v>0.7230411760821517</v>
       </c>
       <c r="C10">
-        <v>0.6320165467849842</v>
+        <v>0.632016546784984</v>
       </c>
       <c r="D10">
-        <v>0.6517028402934478</v>
+        <v>0.6517028402934479</v>
       </c>
       <c r="E10">
         <v>0.6791502005582215</v>
@@ -544,10 +544,10 @@
         <v>0.7230411760821516</v>
       </c>
       <c r="C11">
-        <v>0.6320165467849842</v>
+        <v>0.6320165467849839</v>
       </c>
       <c r="D11">
-        <v>0.6517028402934478</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E11">
         <v>0.6791502005582215</v>
@@ -561,7 +561,7 @@
         <v>0.5102062335506596</v>
       </c>
       <c r="C12">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="D12">
         <v>0.4433261991763169</v>
@@ -578,10 +578,10 @@
         <v>0.6775003061548949</v>
       </c>
       <c r="C13">
-        <v>0.5735379138762114</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="D13">
-        <v>0.590332082532357</v>
+        <v>0.5903320825323571</v>
       </c>
       <c r="E13">
         <v>0.6306784763381318</v>
@@ -595,13 +595,13 @@
         <v>0.5102062335506596</v>
       </c>
       <c r="C14">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="D14">
         <v>0.4433261991763169</v>
       </c>
       <c r="E14">
-        <v>0.4806545650370547</v>
+        <v>0.4806545650370546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,10 +612,10 @@
         <v>0.7230411760821517</v>
       </c>
       <c r="C15">
-        <v>0.6320165467849841</v>
+        <v>0.6320165467849838</v>
       </c>
       <c r="D15">
-        <v>0.6517028402934479</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E15">
         <v>0.6791502005582215</v>
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.5935230731814897</v>
+        <v>0.5935230731814898</v>
       </c>
       <c r="C16">
-        <v>0.506624266694955</v>
+        <v>0.5066242666949549</v>
       </c>
       <c r="D16">
         <v>0.5196589431247067</v>
       </c>
       <c r="E16">
-        <v>0.5412925457034896</v>
+        <v>0.5412925457034895</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>0.5102062335506595</v>
       </c>
       <c r="C17">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="D17">
         <v>0.4433261991763169</v>
       </c>
       <c r="E17">
-        <v>0.4806545650370547</v>
+        <v>0.4806545650370546</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,10 +663,10 @@
         <v>0.6775003061548949</v>
       </c>
       <c r="C18">
-        <v>0.5735379138762116</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="D18">
-        <v>0.5903320825323571</v>
+        <v>0.5903320825323572</v>
       </c>
       <c r="E18">
         <v>0.6306784763381317</v>
@@ -697,10 +697,10 @@
         <v>0.5935230731814898</v>
       </c>
       <c r="C20">
-        <v>0.506624266694955</v>
+        <v>0.5066242666949549</v>
       </c>
       <c r="D20">
-        <v>0.5196589431247066</v>
+        <v>0.5196589431247067</v>
       </c>
       <c r="E20">
         <v>0.5412925457034896</v>
@@ -720,7 +720,7 @@
         <v>0.5196589431247067</v>
       </c>
       <c r="E21">
-        <v>0.5412925457034896</v>
+        <v>0.5412925457034895</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,13 +748,13 @@
         <v>0.5590528895766358</v>
       </c>
       <c r="C23">
-        <v>0.463517911363077</v>
+        <v>0.4635179113630768</v>
       </c>
       <c r="D23">
-        <v>0.4739302127192875</v>
+        <v>0.4739302127192876</v>
       </c>
       <c r="E23">
-        <v>0.5055372562741492</v>
+        <v>0.5055372562741491</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.3816062638918192</v>
+        <v>0.3816062638918193</v>
       </c>
       <c r="C24">
         <v>0.3065279798541584</v>
@@ -805,7 +805,7 @@
         <v>0.3235537460225449</v>
       </c>
       <c r="E26">
-        <v>0.3572401108653931</v>
+        <v>0.357240110865393</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,10 +813,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.3920141828620677</v>
+        <v>0.3920141828620678</v>
       </c>
       <c r="C27">
-        <v>0.3373138814390252</v>
+        <v>0.3373138814390251</v>
       </c>
       <c r="D27">
         <v>0.3861931120451852</v>
@@ -836,7 +836,7 @@
         <v>0.3373138814390252</v>
       </c>
       <c r="D28">
-        <v>0.3861931120451852</v>
+        <v>0.3861931120451853</v>
       </c>
       <c r="E28">
         <v>0.4301507588728267</v>
@@ -867,10 +867,10 @@
         <v>0.9223969067224395</v>
       </c>
       <c r="C30">
-        <v>0.9414323880976344</v>
+        <v>0.9414323880976342</v>
       </c>
       <c r="D30">
-        <v>0.9794603867459881</v>
+        <v>0.9794603867459883</v>
       </c>
       <c r="E30">
         <v>0.911458153013084</v>
@@ -884,13 +884,13 @@
         <v>0.9223969067224395</v>
       </c>
       <c r="C31">
-        <v>0.9414323880976343</v>
+        <v>0.9414323880976342</v>
       </c>
       <c r="D31">
-        <v>0.9794603867459881</v>
+        <v>0.9794603867459883</v>
       </c>
       <c r="E31">
-        <v>0.9114581530130841</v>
+        <v>0.911458153013084</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -904,10 +904,10 @@
         <v>0.8385878995208663</v>
       </c>
       <c r="D32">
-        <v>0.8950836922463422</v>
+        <v>0.8950836922463423</v>
       </c>
       <c r="E32">
-        <v>0.8478542089490972</v>
+        <v>0.8478542089490971</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,10 +935,10 @@
         <v>0.6716324809391445</v>
       </c>
       <c r="C34">
-        <v>0.6486405823032274</v>
+        <v>0.6486405823032273</v>
       </c>
       <c r="D34">
-        <v>0.7414594103946269</v>
+        <v>0.741459410394627</v>
       </c>
       <c r="E34">
         <v>0.7330295899248436</v>
@@ -969,10 +969,10 @@
         <v>0.7758027274102514</v>
       </c>
       <c r="C36">
-        <v>0.7811029028374215</v>
+        <v>0.7811029028374212</v>
       </c>
       <c r="D36">
-        <v>0.8473691993594649</v>
+        <v>0.847369199359465</v>
       </c>
       <c r="E36">
         <v>0.8110281270788234</v>
@@ -986,13 +986,13 @@
         <v>0.9573310396701227</v>
       </c>
       <c r="C37">
-        <v>0.9688686559074869</v>
+        <v>0.9688686559074868</v>
       </c>
       <c r="D37">
         <v>0.9945785971686862</v>
       </c>
       <c r="E37">
-        <v>0.916453049732192</v>
+        <v>0.9164530497321921</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,7 +1003,7 @@
         <v>0.9573310396701227</v>
       </c>
       <c r="C38">
-        <v>0.9688686559074871</v>
+        <v>0.9688686559074868</v>
       </c>
       <c r="D38">
         <v>0.9945785971686861</v>
@@ -1037,7 +1037,7 @@
         <v>0.5835636565468924</v>
       </c>
       <c r="C40">
-        <v>0.5685064088445554</v>
+        <v>0.5685064088445553</v>
       </c>
       <c r="D40">
         <v>0.6667262026357713</v>
@@ -1054,7 +1054,7 @@
         <v>0.6938579934704601</v>
       </c>
       <c r="C41">
-        <v>0.673902301017607</v>
+        <v>0.6739023010176068</v>
       </c>
       <c r="D41">
         <v>0.7393255412338775</v>
@@ -1077,7 +1077,7 @@
         <v>0.8838771001119713</v>
       </c>
       <c r="E42">
-        <v>0.822733659587389</v>
+        <v>0.8227336595873889</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0.4653612575799836</v>
       </c>
       <c r="C44">
-        <v>0.4526633390285494</v>
+        <v>0.4526633390285493</v>
       </c>
       <c r="D44">
-        <v>0.5524538789433346</v>
+        <v>0.5524538789433345</v>
       </c>
       <c r="E44">
         <v>0.5669930136537296</v>
@@ -1128,7 +1128,7 @@
         <v>0.8046532558000381</v>
       </c>
       <c r="E45">
-        <v>0.7658360821524052</v>
+        <v>0.7658360821524053</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,10 +1139,10 @@
         <v>0.8695188791068352</v>
       </c>
       <c r="C46">
-        <v>0.8643702643706292</v>
+        <v>0.8643702643706291</v>
       </c>
       <c r="D46">
-        <v>0.9102603486963233</v>
+        <v>0.9102603486963234</v>
       </c>
       <c r="E46">
         <v>0.8536139749208409</v>
@@ -1156,7 +1156,7 @@
         <v>0.5891460850071992</v>
       </c>
       <c r="C47">
-        <v>0.5773791749616516</v>
+        <v>0.5773791749616515</v>
       </c>
       <c r="D47">
         <v>0.6799598743816764</v>
@@ -1173,7 +1173,7 @@
         <v>0.6884228327677219</v>
       </c>
       <c r="C48">
-        <v>0.6644295005371009</v>
+        <v>0.6644295005371008</v>
       </c>
       <c r="D48">
         <v>0.7212295737285471</v>
@@ -1196,7 +1196,7 @@
         <v>0.7115701110833046</v>
       </c>
       <c r="E49">
-        <v>0.7682005185328262</v>
+        <v>0.7682005185328261</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1210,7 +1210,7 @@
         <v>0.7018768481272575</v>
       </c>
       <c r="D50">
-        <v>0.7431017893665348</v>
+        <v>0.743101789366535</v>
       </c>
       <c r="E50">
         <v>0.8163972115350269</v>
@@ -1272,7 +1272,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.6779553125570512</v>
+        <v>0.6779553125570511</v>
       </c>
       <c r="C54">
         <v>0.6120482292743129</v>
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.7853282020554837</v>
+        <v>0.7853282020554838</v>
       </c>
       <c r="C55">
         <v>0.7018768481272575</v>
       </c>
       <c r="D55">
-        <v>0.7431017893665348</v>
+        <v>0.743101789366535</v>
       </c>
       <c r="E55">
         <v>0.8163972115350269</v>
@@ -1315,7 +1315,7 @@
         <v>0.571931739465413</v>
       </c>
       <c r="E56">
-        <v>0.6381543991861198</v>
+        <v>0.6381543991861197</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,13 +1323,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.4811737706528146</v>
+        <v>0.4811737706528147</v>
       </c>
       <c r="C57">
         <v>0.4195124819164474</v>
       </c>
       <c r="D57">
-        <v>0.4553640349358726</v>
+        <v>0.4553640349358727</v>
       </c>
       <c r="E57">
         <v>0.5079715772953483</v>
@@ -1340,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.5160808785595501</v>
+        <v>0.5160808785595502</v>
       </c>
       <c r="C58">
         <v>0.4525116459928332</v>
@@ -1357,10 +1357,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.5160808785595501</v>
+        <v>0.5160808785595502</v>
       </c>
       <c r="C59">
-        <v>0.4525116459928333</v>
+        <v>0.4525116459928332</v>
       </c>
       <c r="D59">
         <v>0.4939784998903253</v>
@@ -1380,10 +1380,10 @@
         <v>0.3340200843501117</v>
       </c>
       <c r="D60">
-        <v>0.3328399669084668</v>
+        <v>0.3328399669084669</v>
       </c>
       <c r="E60">
-        <v>0.3615368039744546</v>
+        <v>0.3615368039744545</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,13 +1391,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.3935928856556133</v>
+        <v>0.3935928856556131</v>
       </c>
       <c r="C61">
-        <v>0.3340200843501116</v>
+        <v>0.3340200843501117</v>
       </c>
       <c r="D61">
-        <v>0.3328399669084668</v>
+        <v>0.3328399669084669</v>
       </c>
       <c r="E61">
         <v>0.3615368039744546</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.2386106051365705</v>
+        <v>0.2386106051365704</v>
       </c>
       <c r="C62">
         <v>0.2010837389731803</v>
@@ -1417,7 +1417,7 @@
         <v>0.2095900059005547</v>
       </c>
       <c r="E62">
-        <v>0.2341747557639113</v>
+        <v>0.2341747557639112</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1482,7 +1482,7 @@
         <v>0.6746630276635545</v>
       </c>
       <c r="D66">
-        <v>0.6537443045892041</v>
+        <v>0.6537443045892042</v>
       </c>
       <c r="E66">
         <v>0.6125175191312848</v>
@@ -1499,7 +1499,7 @@
         <v>0.6019810774979367</v>
       </c>
       <c r="D67">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E67">
         <v>0.5675799264787071</v>
@@ -1516,7 +1516,7 @@
         <v>0.6746630276635545</v>
       </c>
       <c r="D68">
-        <v>0.6537443045892041</v>
+        <v>0.6537443045892042</v>
       </c>
       <c r="E68">
         <v>0.6125175191312847</v>
@@ -1533,10 +1533,10 @@
         <v>0.6019810774979369</v>
       </c>
       <c r="D69">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504172</v>
       </c>
       <c r="E69">
-        <v>0.5675799264787071</v>
+        <v>0.5675799264787073</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1550,7 +1550,7 @@
         <v>0.6019810774979369</v>
       </c>
       <c r="D70">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E70">
         <v>0.5675799264787071</v>
@@ -1570,7 +1570,7 @@
         <v>0.5968084170127249</v>
       </c>
       <c r="E71">
-        <v>0.5880886718360889</v>
+        <v>0.588088671836089</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1587,7 +1587,7 @@
         <v>0.5314505374067763</v>
       </c>
       <c r="E72">
-        <v>0.5195768998984579</v>
+        <v>0.519576899898458</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>0.5314505374067763</v>
       </c>
       <c r="E74">
-        <v>0.5195768998984579</v>
+        <v>0.519576899898458</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1652,10 +1652,10 @@
         <v>0.6019810774979367</v>
       </c>
       <c r="D76">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E76">
-        <v>0.5675799264787071</v>
+        <v>0.5675799264787073</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="C77">
         <v>0.5447667648794677</v>
@@ -1672,7 +1672,7 @@
         <v>0.5323591471614018</v>
       </c>
       <c r="E77">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1680,16 +1680,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="C78">
         <v>0.5447667648794677</v>
       </c>
       <c r="D78">
-        <v>0.5323591471614018</v>
+        <v>0.5323591471614019</v>
       </c>
       <c r="E78">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1697,7 +1697,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="C79">
         <v>0.5447667648794677</v>
@@ -1714,16 +1714,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="C80">
         <v>0.5447667648794677</v>
       </c>
       <c r="D80">
-        <v>0.5323591471614018</v>
+        <v>0.532359147161402</v>
       </c>
       <c r="E80">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1734,13 +1734,13 @@
         <v>0.5164854450490608</v>
       </c>
       <c r="C81">
-        <v>0.5072549699336285</v>
+        <v>0.5072549699336284</v>
       </c>
       <c r="D81">
-        <v>0.6092744927427751</v>
+        <v>0.6092744927427749</v>
       </c>
       <c r="E81">
-        <v>0.6304169197898617</v>
+        <v>0.6304169197898618</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1751,10 +1751,10 @@
         <v>0.5164854450490606</v>
       </c>
       <c r="C82">
-        <v>0.5072549699336285</v>
+        <v>0.5072549699336284</v>
       </c>
       <c r="D82">
-        <v>0.6092744927427751</v>
+        <v>0.6092744927427749</v>
       </c>
       <c r="E82">
         <v>0.6304169197898617</v>
@@ -1768,13 +1768,13 @@
         <v>0.4797732986905244</v>
       </c>
       <c r="C83">
-        <v>0.4178050996014237</v>
+        <v>0.4178050996014238</v>
       </c>
       <c r="D83">
         <v>0.426181210786006</v>
       </c>
       <c r="E83">
-        <v>0.4014539591697482</v>
+        <v>0.4014539591697483</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.4797732986905243</v>
+        <v>0.4797732986905244</v>
       </c>
       <c r="C84">
-        <v>0.4178050996014237</v>
+        <v>0.4178050996014238</v>
       </c>
       <c r="D84">
         <v>0.4261812107860061</v>
       </c>
       <c r="E84">
-        <v>0.4014539591697482</v>
+        <v>0.4014539591697483</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1856,7 +1856,7 @@
         <v>0.1953286270198481</v>
       </c>
       <c r="D88">
-        <v>0.2677069888738787</v>
+        <v>0.2677069888738788</v>
       </c>
       <c r="E88">
         <v>0.3215408290916772</v>
@@ -1986,7 +1986,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.85680616952074</v>
+        <v>1.856806169520741</v>
       </c>
       <c r="C96">
         <v>1.944235469586874</v>
@@ -2131,7 +2131,7 @@
         <v>1.467109859957955</v>
       </c>
       <c r="E104">
-        <v>1.358324897796899</v>
+        <v>1.3583248977969</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2244,7 +2244,7 @@
         <v>1.008434002522399</v>
       </c>
       <c r="C111">
-        <v>1.088142999923522</v>
+        <v>1.088142999923521</v>
       </c>
       <c r="D111">
         <v>1.213254054487497</v>
@@ -2275,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.9113163459368909</v>
+        <v>0.9113163459368908</v>
       </c>
       <c r="C113">
         <v>0.9938626620361205</v>
@@ -2298,7 +2298,7 @@
         <v>0.8733301188894123</v>
       </c>
       <c r="D114">
-        <v>1.026074717075755</v>
+        <v>1.026074717075756</v>
       </c>
       <c r="E114">
         <v>1.043178297029794</v>
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9109288686796227</v>
+        <v>0.9109288686796226</v>
       </c>
       <c r="C117">
         <v>0.9931902548274651</v>
@@ -2380,7 +2380,7 @@
         <v>0.6317030831545861</v>
       </c>
       <c r="C119">
-        <v>0.6564970357195067</v>
+        <v>0.6564970357195065</v>
       </c>
       <c r="D119">
         <v>0.8064420350298209</v>
@@ -2394,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.63677798705588</v>
+        <v>1.636777987055881</v>
       </c>
       <c r="C120">
-        <v>1.698565785896225</v>
+        <v>1.698565785896224</v>
       </c>
       <c r="D120">
         <v>1.767533848676933</v>
       </c>
       <c r="E120">
-        <v>1.633041248724307</v>
+        <v>1.633041248724308</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2420,7 +2420,7 @@
         <v>1.767533848676933</v>
       </c>
       <c r="E121">
-        <v>1.633041248724307</v>
+        <v>1.633041248724308</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.9790243680944886</v>
+        <v>0.9790243680944883</v>
       </c>
       <c r="C122">
         <v>1.057407348779093</v>
@@ -2445,7 +2445,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.9816403850136778</v>
+        <v>0.9816403850136779</v>
       </c>
       <c r="C123">
         <v>1.061856481182479</v>
@@ -2454,7 +2454,7 @@
         <v>1.197603148945584</v>
       </c>
       <c r="E123">
-        <v>1.191368424647078</v>
+        <v>1.191368424647079</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.9790243680944885</v>
+        <v>0.9790243680944886</v>
       </c>
       <c r="C124">
         <v>1.057407348779093</v>
@@ -2479,7 +2479,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.9401435277627276</v>
+        <v>0.9401435277627277</v>
       </c>
       <c r="C125">
         <v>1.017475791290656</v>
@@ -2496,10 +2496,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.8400680744087974</v>
+        <v>0.8400680744087976</v>
       </c>
       <c r="C126">
-        <v>0.8944657762507752</v>
+        <v>0.8944657762507751</v>
       </c>
       <c r="D126">
         <v>1.051056811872647</v>
@@ -2516,7 +2516,7 @@
         <v>0.8938217035834536</v>
       </c>
       <c r="C127">
-        <v>0.9545535573826619</v>
+        <v>0.9545535573826617</v>
       </c>
       <c r="D127">
         <v>1.106653898747896</v>
@@ -2533,10 +2533,10 @@
         <v>0.9039005413209027</v>
       </c>
       <c r="C128">
-        <v>0.9179539684528223</v>
+        <v>0.9179539684528222</v>
       </c>
       <c r="D128">
-        <v>1.046077557778249</v>
+        <v>1.04607755777825</v>
       </c>
       <c r="E128">
         <v>1.063374980932039</v>
@@ -2550,10 +2550,10 @@
         <v>0.9039005413209028</v>
       </c>
       <c r="C129">
-        <v>0.9179539684528225</v>
+        <v>0.9179539684528223</v>
       </c>
       <c r="D129">
-        <v>1.046077557778249</v>
+        <v>1.04607755777825</v>
       </c>
       <c r="E129">
         <v>1.063374980932039</v>
@@ -2584,10 +2584,10 @@
         <v>1.727352340798694</v>
       </c>
       <c r="C131">
-        <v>1.786337899745596</v>
+        <v>1.786337899745595</v>
       </c>
       <c r="D131">
-        <v>1.824069754678082</v>
+        <v>1.824069754678083</v>
       </c>
       <c r="E131">
         <v>1.625599500160082</v>
@@ -2604,7 +2604,7 @@
         <v>1.782842903477837</v>
       </c>
       <c r="D132">
-        <v>1.820672045228418</v>
+        <v>1.820672045228419</v>
       </c>
       <c r="E132">
         <v>1.625282031642574</v>
@@ -2621,7 +2621,7 @@
         <v>1.766184080697765</v>
       </c>
       <c r="D133">
-        <v>1.804476937925363</v>
+        <v>1.804476937925364</v>
       </c>
       <c r="E133">
         <v>1.623768824941841</v>
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.790066494208516</v>
+        <v>1.790066494208515</v>
       </c>
       <c r="C134">
         <v>1.860139795091244</v>
@@ -2723,7 +2723,7 @@
         <v>1.548924599563171</v>
       </c>
       <c r="D139">
-        <v>1.595932669583567</v>
+        <v>1.595932669583568</v>
       </c>
       <c r="E139">
         <v>1.464746070017789</v>
@@ -2740,7 +2740,7 @@
         <v>1.068178276398565</v>
       </c>
       <c r="D140">
-        <v>0.9757371249639288</v>
+        <v>0.9757371249639291</v>
       </c>
       <c r="E140">
         <v>1.00006349756712</v>
@@ -2757,7 +2757,7 @@
         <v>1.548924599563171</v>
       </c>
       <c r="D141">
-        <v>1.595932669583567</v>
+        <v>1.595932669583568</v>
       </c>
       <c r="E141">
         <v>1.464746070017789</v>
@@ -2791,7 +2791,7 @@
         <v>1.229874247368051</v>
       </c>
       <c r="D143">
-        <v>1.303575602474664</v>
+        <v>1.303575602474665</v>
       </c>
       <c r="E143">
         <v>1.235837800712141</v>
@@ -2839,7 +2839,7 @@
         <v>0.9264351033493484</v>
       </c>
       <c r="C146">
-        <v>0.9465075897511305</v>
+        <v>0.9465075897511304</v>
       </c>
       <c r="D146">
         <v>1.050352227460842</v>
@@ -2853,7 +2853,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.9859764339167919</v>
+        <v>0.9859764339167922</v>
       </c>
       <c r="C147">
         <v>1.008811090228801</v>
@@ -2873,13 +2873,13 @@
         <v>1.091473193080825</v>
       </c>
       <c r="C148">
-        <v>1.131642503884982</v>
+        <v>1.131642503884981</v>
       </c>
       <c r="D148">
         <v>1.195252940787852</v>
       </c>
       <c r="E148">
-        <v>1.13156668670012</v>
+        <v>1.131566686700119</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2921,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.294480685118407</v>
+        <v>1.294480685118406</v>
       </c>
       <c r="C151">
         <v>1.334322094164326</v>
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.9554273381581493</v>
+        <v>0.9554273381581495</v>
       </c>
       <c r="C155">
-        <v>0.9611355796840839</v>
+        <v>0.9611355796840837</v>
       </c>
       <c r="D155">
         <v>0.996800869845023</v>
       </c>
       <c r="E155">
-        <v>0.9358643664552</v>
+        <v>0.9358643664552003</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>0.9554273381581495</v>
       </c>
       <c r="C156">
-        <v>0.9611355796840838</v>
+        <v>0.9611355796840837</v>
       </c>
       <c r="D156">
         <v>0.996800869845023</v>
       </c>
       <c r="E156">
-        <v>0.9358643664552</v>
+        <v>0.9358643664552003</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,10 +3023,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.8692494842430702</v>
+        <v>0.8692494842430704</v>
       </c>
       <c r="C157">
-        <v>0.8606066637597609</v>
+        <v>0.8606066637597607</v>
       </c>
       <c r="D157">
         <v>0.9156998489387289</v>
@@ -3074,7 +3074,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.9620612458438371</v>
+        <v>0.9620612458438373</v>
       </c>
       <c r="C160">
         <v>0.9894572421618917</v>
@@ -3094,7 +3094,7 @@
         <v>0.8973564125518827</v>
       </c>
       <c r="C161">
-        <v>0.9060968511561455</v>
+        <v>0.9060968511561456</v>
       </c>
       <c r="D161">
         <v>0.9791450486835507</v>
@@ -3114,7 +3114,7 @@
         <v>0.7900010654081709</v>
       </c>
       <c r="D162">
-        <v>0.864227447072225</v>
+        <v>0.8642274470722249</v>
       </c>
       <c r="E162">
         <v>0.856373544220241</v>
@@ -3128,7 +3128,7 @@
         <v>1.197990789168858</v>
       </c>
       <c r="C163">
-        <v>1.240237659634274</v>
+        <v>1.240237659634273</v>
       </c>
       <c r="D163">
         <v>1.30199430764765</v>
@@ -3182,7 +3182,7 @@
         <v>0.9069286026165246</v>
       </c>
       <c r="D166">
-        <v>0.9964619606371856</v>
+        <v>0.9964619606371857</v>
       </c>
       <c r="E166">
         <v>0.9789246335128113</v>
@@ -3202,7 +3202,7 @@
         <v>0.9001833000401838</v>
       </c>
       <c r="E167">
-        <v>0.8929111238304525</v>
+        <v>0.8929111238304527</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3216,7 +3216,7 @@
         <v>0.6006025911105226</v>
       </c>
       <c r="D168">
-        <v>0.7336338215773291</v>
+        <v>0.7336338215773293</v>
       </c>
       <c r="E168">
         <v>0.764142721541812</v>
@@ -3230,13 +3230,13 @@
         <v>1.593210206907623</v>
       </c>
       <c r="C169">
-        <v>1.657839782256456</v>
+        <v>1.657839782256455</v>
       </c>
       <c r="D169">
         <v>1.721050941746405</v>
       </c>
       <c r="E169">
-        <v>1.579723746687182</v>
+        <v>1.579723746687183</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3250,7 +3250,7 @@
         <v>1.655059025903773</v>
       </c>
       <c r="D170">
-        <v>1.704422293971864</v>
+        <v>1.704422293971865</v>
       </c>
       <c r="E170">
         <v>1.545550354120066</v>
@@ -3270,7 +3270,7 @@
         <v>1.718735555300826</v>
       </c>
       <c r="E171">
-        <v>1.579578212781281</v>
+        <v>1.579578212781282</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>1.267185380565271</v>
       </c>
       <c r="E176">
-        <v>1.20659212968752</v>
+        <v>1.206592129687519</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3403,7 +3403,7 @@
         <v>1.199266545672727</v>
       </c>
       <c r="D179">
-        <v>1.236054645992182</v>
+        <v>1.236054645992183</v>
       </c>
       <c r="E179">
         <v>1.14982907076864</v>
@@ -3417,7 +3417,7 @@
         <v>0.8256693277261042</v>
       </c>
       <c r="C180">
-        <v>0.8325445235949259</v>
+        <v>0.8325445235949258</v>
       </c>
       <c r="D180">
         <v>0.9508196923272599</v>
@@ -3434,10 +3434,10 @@
         <v>0.8256693277261042</v>
       </c>
       <c r="C181">
-        <v>0.8325445235949259</v>
+        <v>0.8325445235949258</v>
       </c>
       <c r="D181">
-        <v>0.9508196923272598</v>
+        <v>0.9508196923272599</v>
       </c>
       <c r="E181">
         <v>0.940994692617083</v>
@@ -3451,10 +3451,10 @@
         <v>0.7264301019324195</v>
       </c>
       <c r="C182">
-        <v>0.7074332098008769</v>
+        <v>0.7074332098008768</v>
       </c>
       <c r="D182">
-        <v>0.8219644861439842</v>
+        <v>0.8219644861439843</v>
       </c>
       <c r="E182">
         <v>0.8171450165632814</v>
@@ -3468,10 +3468,10 @@
         <v>0.6147677197028339</v>
       </c>
       <c r="C183">
-        <v>0.5993958452089987</v>
+        <v>0.5993958452089986</v>
       </c>
       <c r="D183">
-        <v>0.6852643003258392</v>
+        <v>0.6852643003258394</v>
       </c>
       <c r="E183">
         <v>0.6756313344136807</v>
@@ -3482,13 +3482,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.882320015190321</v>
+        <v>0.8823200151903211</v>
       </c>
       <c r="C184">
         <v>0.9062384394199369</v>
       </c>
       <c r="D184">
-        <v>0.9847346090705651</v>
+        <v>0.9847346090705653</v>
       </c>
       <c r="E184">
         <v>0.9515106031087427</v>
@@ -3505,10 +3505,10 @@
         <v>0.9062384394199369</v>
       </c>
       <c r="D185">
-        <v>0.9847346090705651</v>
+        <v>0.9847346090705653</v>
       </c>
       <c r="E185">
-        <v>0.9515106031087428</v>
+        <v>0.9515106031087427</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,7 +3516,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.7989910842593073</v>
+        <v>0.7989910842593072</v>
       </c>
       <c r="C186">
         <v>0.7903417739498657</v>
@@ -3525,7 +3525,7 @@
         <v>0.8578215905089551</v>
       </c>
       <c r="E186">
-        <v>0.8432928388651999</v>
+        <v>0.8432928388652</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3533,7 +3533,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.8719729825840081</v>
+        <v>0.8719729825840079</v>
       </c>
       <c r="C187">
         <v>0.8855000439114051</v>
@@ -3559,7 +3559,7 @@
         <v>0.7983491753792772</v>
       </c>
       <c r="E188">
-        <v>0.7815983929837089</v>
+        <v>0.781598392983709</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3573,10 +3573,10 @@
         <v>0.6294983020173117</v>
       </c>
       <c r="D189">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E189">
-        <v>0.7204548560036317</v>
+        <v>0.7204548560036318</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3590,7 +3590,7 @@
         <v>0.6294983020173117</v>
       </c>
       <c r="D190">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E190">
         <v>0.7204548560036318</v>
@@ -3610,7 +3610,7 @@
         <v>1.016445482031774</v>
       </c>
       <c r="E191">
-        <v>0.9809115365670464</v>
+        <v>0.9809115365670463</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,7 +3618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.871972982584008</v>
+        <v>0.8719729825840079</v>
       </c>
       <c r="C192">
         <v>0.8855000439114051</v>
@@ -3627,7 +3627,7 @@
         <v>0.9498777630793648</v>
       </c>
       <c r="E192">
-        <v>0.9071462214199005</v>
+        <v>0.9071462214199008</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3658,7 +3658,7 @@
         <v>1.636367771489212</v>
       </c>
       <c r="D194">
-        <v>1.710129204143475</v>
+        <v>1.710129204143476</v>
       </c>
       <c r="E194">
         <v>1.550822327983315</v>
@@ -3672,7 +3672,7 @@
         <v>1.595337040172253</v>
       </c>
       <c r="C195">
-        <v>1.661473927891137</v>
+        <v>1.661473927891136</v>
       </c>
       <c r="D195">
         <v>1.724528774044142</v>
@@ -3706,7 +3706,7 @@
         <v>1.32816720854094</v>
       </c>
       <c r="C197">
-        <v>1.401111470880771</v>
+        <v>1.40111147088077</v>
       </c>
       <c r="D197">
         <v>1.471634019446648</v>
@@ -3723,7 +3723,7 @@
         <v>1.337490561731302</v>
       </c>
       <c r="C198">
-        <v>1.417470543854396</v>
+        <v>1.417470543854395</v>
       </c>
       <c r="D198">
         <v>1.487012911144864</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.9867244516064635</v>
+        <v>0.9867244516064636</v>
       </c>
       <c r="C202">
         <v>1.019537521972074</v>
       </c>
       <c r="D202">
-        <v>1.062520545866914</v>
+        <v>1.062520545866915</v>
       </c>
       <c r="E202">
         <v>1.085318365975234</v>
@@ -3842,7 +3842,7 @@
         <v>0.9194718124326238</v>
       </c>
       <c r="C205">
-        <v>0.9779607082129695</v>
+        <v>0.9779607082129694</v>
       </c>
       <c r="D205">
         <v>1.112714658347913</v>
@@ -3890,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.239659274862326</v>
+        <v>1.239659274862327</v>
       </c>
       <c r="C208">
         <v>1.138786045897711</v>
@@ -3924,7 +3924,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.239659274862326</v>
+        <v>1.239659274862327</v>
       </c>
       <c r="C210">
         <v>1.138786045897711</v>
@@ -3961,13 +3961,13 @@
         <v>1.102380519002043</v>
       </c>
       <c r="C212">
-        <v>1.033050789981087</v>
+        <v>1.033050789981086</v>
       </c>
       <c r="D212">
         <v>1.085677180214053</v>
       </c>
       <c r="E212">
-        <v>1.085932224079091</v>
+        <v>1.08593222407909</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>0.9148577568164071</v>
       </c>
       <c r="E214">
-        <v>0.918734960180277</v>
+        <v>0.9187349601802769</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>0.9702330095520519</v>
       </c>
       <c r="C215">
-        <v>0.8836463430079041</v>
+        <v>0.883646343007904</v>
       </c>
       <c r="D215">
         <v>0.9148577568164071</v>
       </c>
       <c r="E215">
-        <v>0.918734960180277</v>
+        <v>0.9187349601802769</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.8043707302983614</v>
+        <v>0.8043707302983611</v>
       </c>
       <c r="C216">
         <v>0.7385870976517714</v>
@@ -4035,7 +4035,7 @@
         <v>0.7649904315510245</v>
       </c>
       <c r="E216">
-        <v>0.7714113865436825</v>
+        <v>0.7714113865436827</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>0.8378043284833794</v>
       </c>
       <c r="E218">
-        <v>0.847954365439497</v>
+        <v>0.8479543654394968</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.9707104438576581</v>
+        <v>0.9707104438576584</v>
       </c>
       <c r="C219">
-        <v>0.923488670958901</v>
+        <v>0.9234886709589007</v>
       </c>
       <c r="D219">
-        <v>0.9974761789996252</v>
+        <v>0.9974761789996254</v>
       </c>
       <c r="E219">
         <v>1.015737432210515</v>
@@ -4097,7 +4097,7 @@
         <v>1.012300979039194</v>
       </c>
       <c r="C220">
-        <v>0.9521320580559448</v>
+        <v>0.9521320580559447</v>
       </c>
       <c r="D220">
         <v>1.012093820884059</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.8097349302504747</v>
+        <v>0.8097349302504745</v>
       </c>
       <c r="C221">
-        <v>0.7680154704377099</v>
+        <v>0.7680154704377097</v>
       </c>
       <c r="D221">
         <v>0.8658568125628797</v>
       </c>
       <c r="E221">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4131,10 +4131,10 @@
         <v>0.9707104438576584</v>
       </c>
       <c r="C222">
-        <v>0.923488670958901</v>
+        <v>0.9234886709589006</v>
       </c>
       <c r="D222">
-        <v>0.9974761789996253</v>
+        <v>0.9974761789996254</v>
       </c>
       <c r="E222">
         <v>1.015737432210515</v>
@@ -4148,7 +4148,7 @@
         <v>0.6135246399245045</v>
       </c>
       <c r="C223">
-        <v>0.5673145484830054</v>
+        <v>0.5673145484830053</v>
       </c>
       <c r="D223">
         <v>0.6976870341407269</v>
@@ -4168,10 +4168,10 @@
         <v>0.4985572525986274</v>
       </c>
       <c r="D224">
-        <v>0.5811518104766211</v>
+        <v>0.5811518104766213</v>
       </c>
       <c r="E224">
-        <v>0.6500376554025967</v>
+        <v>0.6500376554025965</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,10 +4185,10 @@
         <v>0.6529905806207564</v>
       </c>
       <c r="D225">
-        <v>0.7210481308790332</v>
+        <v>0.7210481308790333</v>
       </c>
       <c r="E225">
-        <v>0.7640143465176077</v>
+        <v>0.7640143465176076</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4199,10 +4199,10 @@
         <v>0.601636378233072</v>
       </c>
       <c r="C226">
-        <v>0.5662085167371687</v>
+        <v>0.5662085167371685</v>
       </c>
       <c r="D226">
-        <v>0.6490667713676952</v>
+        <v>0.6490667713676953</v>
       </c>
       <c r="E226">
         <v>0.7032309528159927</v>
@@ -4213,7 +4213,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.8978404427661243</v>
+        <v>0.8978404427661244</v>
       </c>
       <c r="C227">
         <v>0.8319918917576103</v>
@@ -4222,7 +4222,7 @@
         <v>0.8630729710000064</v>
       </c>
       <c r="E227">
-        <v>0.8763569256189223</v>
+        <v>0.876356925618922</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4239,7 +4239,7 @@
         <v>0.4982527518247478</v>
       </c>
       <c r="E228">
-        <v>0.5353676304951102</v>
+        <v>0.5353676304951103</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>0.8990581953785902</v>
       </c>
       <c r="C230">
-        <v>0.8705951857565506</v>
+        <v>0.8705951857565504</v>
       </c>
       <c r="D230">
         <v>0.953392745320119</v>
       </c>
       <c r="E230">
-        <v>0.9799502193540965</v>
+        <v>0.9799502193540967</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4284,10 +4284,10 @@
         <v>1.001724497594554</v>
       </c>
       <c r="C231">
-        <v>0.9205647532839532</v>
+        <v>0.920564753283953</v>
       </c>
       <c r="D231">
-        <v>0.9936661153885005</v>
+        <v>0.9936661153885006</v>
       </c>
       <c r="E231">
         <v>1.01153778443103</v>
@@ -4301,13 +4301,13 @@
         <v>0.9522332165437574</v>
       </c>
       <c r="C232">
-        <v>0.8662944860706506</v>
+        <v>0.8662944860706505</v>
       </c>
       <c r="D232">
         <v>0.9265933442649167</v>
       </c>
       <c r="E232">
-        <v>0.9402413619285312</v>
+        <v>0.9402413619285311</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4315,7 +4315,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.7433479679104898</v>
+        <v>0.74334796791049</v>
       </c>
       <c r="C233">
         <v>0.66426413475056</v>
@@ -4324,7 +4324,7 @@
         <v>0.7652849573223319</v>
       </c>
       <c r="E233">
-        <v>0.8102424626575455</v>
+        <v>0.8102424626575453</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4369,7 +4369,7 @@
         <v>0.670565650684171</v>
       </c>
       <c r="C236">
-        <v>0.6292917003161583</v>
+        <v>0.6292917003161582</v>
       </c>
       <c r="D236">
         <v>0.7786095069138187</v>
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.7908787915748077</v>
+        <v>0.7908787915748078</v>
       </c>
       <c r="C237">
         <v>0.7104476756043528</v>
@@ -4392,7 +4392,7 @@
         <v>0.7742468887650469</v>
       </c>
       <c r="E237">
-        <v>0.8126605761046977</v>
+        <v>0.8126605761046973</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.5915927988812167</v>
+        <v>0.5915927988812169</v>
       </c>
       <c r="C239">
         <v>0.5184372330206189</v>
@@ -4426,7 +4426,7 @@
         <v>0.6207022783156739</v>
       </c>
       <c r="E239">
-        <v>0.6861886564570975</v>
+        <v>0.6861886564570974</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4440,10 +4440,10 @@
         <v>0.4459365938214671</v>
       </c>
       <c r="D240">
-        <v>0.5030954020069288</v>
+        <v>0.5030954020069289</v>
       </c>
       <c r="E240">
-        <v>0.5501376420665092</v>
+        <v>0.5501376420665091</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4477,7 +4477,7 @@
         <v>0.8658568125628797</v>
       </c>
       <c r="E242">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4488,10 +4488,10 @@
         <v>0.6643092346586335</v>
       </c>
       <c r="C243">
-        <v>0.6728821529009682</v>
+        <v>0.6728821529009681</v>
       </c>
       <c r="D243">
-        <v>0.820331510590083</v>
+        <v>0.8203315105900831</v>
       </c>
       <c r="E243">
         <v>0.8862128033594253</v>
@@ -4505,13 +4505,13 @@
         <v>0.8097349302504746</v>
       </c>
       <c r="C244">
-        <v>0.7680154704377099</v>
+        <v>0.7680154704377097</v>
       </c>
       <c r="D244">
-        <v>0.8658568125628797</v>
+        <v>0.8658568125628798</v>
       </c>
       <c r="E244">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4525,10 +4525,10 @@
         <v>0.5854867934274267</v>
       </c>
       <c r="D245">
-        <v>0.7269270561305282</v>
+        <v>0.7269270561305283</v>
       </c>
       <c r="E245">
-        <v>0.8124804535350443</v>
+        <v>0.8124804535350442</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4545,7 +4545,7 @@
         <v>0.7128743116550842</v>
       </c>
       <c r="E246">
-        <v>0.7945524067330041</v>
+        <v>0.794552406733004</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4579,7 +4579,7 @@
         <v>0.8568806954312804</v>
       </c>
       <c r="E248">
-        <v>0.9001353786739882</v>
+        <v>0.9001353786739881</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.4552576630549074</v>
+        <v>0.4552576630549075</v>
       </c>
       <c r="C249">
         <v>0.3870765702817255</v>
@@ -4607,7 +4607,7 @@
         <v>0.773363448788644</v>
       </c>
       <c r="C250">
-        <v>0.8488219562253211</v>
+        <v>0.848821956225321</v>
       </c>
       <c r="D250">
         <v>1.046523623147462</v>
@@ -4621,10 +4621,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.8738878384791594</v>
+        <v>0.8738878384791593</v>
       </c>
       <c r="C251">
-        <v>0.9234458253958979</v>
+        <v>0.9234458253958981</v>
       </c>
       <c r="D251">
         <v>1.081479951646362</v>
@@ -4641,7 +4641,7 @@
         <v>0.8964040697541413</v>
       </c>
       <c r="C252">
-        <v>0.9419864725528796</v>
+        <v>0.9419864725528795</v>
       </c>
       <c r="D252">
         <v>1.099745651188156</v>
@@ -4678,7 +4678,7 @@
         <v>0.6595887827341423</v>
       </c>
       <c r="D254">
-        <v>0.87141818175953</v>
+        <v>0.8714181817595301</v>
       </c>
       <c r="E254">
         <v>0.9425271324248108</v>
@@ -4698,7 +4698,7 @@
         <v>0.7235615000375559</v>
       </c>
       <c r="E255">
-        <v>0.8091163630938848</v>
+        <v>0.8091163630938849</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.6219049287432734</v>
+        <v>0.6219049287432735</v>
       </c>
       <c r="C256">
-        <v>0.6242332451425957</v>
+        <v>0.6242332451425955</v>
       </c>
       <c r="D256">
         <v>0.8038715672645746</v>
@@ -4726,13 +4726,13 @@
         <v>0.3385556761209172</v>
       </c>
       <c r="C257">
-        <v>0.3548222591727975</v>
+        <v>0.3548222591727974</v>
       </c>
       <c r="D257">
         <v>0.5352252897500158</v>
       </c>
       <c r="E257">
-        <v>0.6356514902432835</v>
+        <v>0.6356514902432836</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4749,7 +4749,7 @@
         <v>0.5539205900057232</v>
       </c>
       <c r="E258">
-        <v>0.6390971821684687</v>
+        <v>0.6390971821684686</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4780,7 +4780,7 @@
         <v>0.436863732941041</v>
       </c>
       <c r="D260">
-        <v>0.4111032473347889</v>
+        <v>0.4111032473347888</v>
       </c>
       <c r="E260">
         <v>0.3656415426174546</v>
@@ -4817,7 +4817,7 @@
         <v>0.4397445260221876</v>
       </c>
       <c r="E262">
-        <v>0.3960669824408739</v>
+        <v>0.396066982440874</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.4726469570513402</v>
+        <v>0.4726469570513401</v>
       </c>
       <c r="C263">
         <v>0.4228835658328089</v>
       </c>
       <c r="D263">
-        <v>0.4066613800080261</v>
+        <v>0.4066613800080262</v>
       </c>
       <c r="E263">
-        <v>0.3740112619437381</v>
+        <v>0.3740112619437382</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="C264">
         <v>0.3335762520791688</v>
@@ -4859,10 +4859,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="C265">
-        <v>0.3335762520791688</v>
+        <v>0.3335762520791687</v>
       </c>
       <c r="D265">
         <v>0.3523700369316162</v>
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.4012243713890187</v>
+        <v>0.4012243713890186</v>
       </c>
       <c r="C266">
         <v>0.3563338816454613</v>
@@ -4893,7 +4893,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="C267">
         <v>0.3335762520791688</v>
@@ -4944,13 +4944,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.3346099585973334</v>
+        <v>0.3346099585973333</v>
       </c>
       <c r="C270">
-        <v>0.3053263499487498</v>
+        <v>0.3053263499487499</v>
       </c>
       <c r="D270">
-        <v>0.3223063744413952</v>
+        <v>0.3223063744413953</v>
       </c>
       <c r="E270">
         <v>0.2945925319240529</v>
@@ -5069,7 +5069,7 @@
         <v>0.4121348190717535</v>
       </c>
       <c r="D277">
-        <v>0.4699012358462142</v>
+        <v>0.4699012358462143</v>
       </c>
       <c r="E277">
         <v>0.511700918433016</v>
@@ -5106,7 +5106,7 @@
         <v>0.3754445923276533</v>
       </c>
       <c r="E279">
-        <v>0.4558152530063865</v>
+        <v>0.4558152530063866</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5117,13 +5117,13 @@
         <v>0.2465502276383506</v>
       </c>
       <c r="C280">
-        <v>0.2447471295673098</v>
+        <v>0.2447471295673097</v>
       </c>
       <c r="D280">
         <v>0.3754445923276534</v>
       </c>
       <c r="E280">
-        <v>0.4558152530063865</v>
+        <v>0.4558152530063866</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5140,7 +5140,7 @@
         <v>0.1123844002870823</v>
       </c>
       <c r="E281">
-        <v>0.0818759300737253</v>
+        <v>0.08187593007372526</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5151,13 +5151,13 @@
         <v>0.2340536709852933</v>
       </c>
       <c r="C282">
-        <v>0.1964942555377813</v>
+        <v>0.1964942555377814</v>
       </c>
       <c r="D282">
         <v>0.2124330542868387</v>
       </c>
       <c r="E282">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5174,7 +5174,7 @@
         <v>0.2124330542868387</v>
       </c>
       <c r="E283">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5191,7 +5191,7 @@
         <v>0.2124330542868387</v>
       </c>
       <c r="E284">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5208,7 +5208,7 @@
         <v>0.2302892078820108</v>
       </c>
       <c r="E285">
-        <v>0.2385189726197286</v>
+        <v>0.2385189726197285</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5225,7 +5225,7 @@
         <v>0.3754445923276534</v>
       </c>
       <c r="E286">
-        <v>0.4558152530063866</v>
+        <v>0.4558152530063867</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5236,7 +5236,7 @@
         <v>0.5694252398830926</v>
       </c>
       <c r="C287">
-        <v>0.5844612961503349</v>
+        <v>0.584461296150335</v>
       </c>
       <c r="D287">
         <v>0.6931886302767517</v>
@@ -5256,7 +5256,7 @@
         <v>0.4134517521555298</v>
       </c>
       <c r="D288">
-        <v>0.5255053266454778</v>
+        <v>0.5255053266454779</v>
       </c>
       <c r="E288">
         <v>0.5757763668478116</v>
@@ -5287,7 +5287,7 @@
         <v>0.4707310480072491</v>
       </c>
       <c r="C290">
-        <v>0.4849306958939929</v>
+        <v>0.484930695893993</v>
       </c>
       <c r="D290">
         <v>0.6202286457023093</v>
@@ -5338,13 +5338,13 @@
         <v>0.3776751699877229</v>
       </c>
       <c r="C293">
-        <v>0.408894472258691</v>
+        <v>0.4088944722586909</v>
       </c>
       <c r="D293">
         <v>0.550053163888177</v>
       </c>
       <c r="E293">
-        <v>0.6233908834831867</v>
+        <v>0.6233908834831868</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5358,7 +5358,7 @@
         <v>0.2833304440876649</v>
       </c>
       <c r="D294">
-        <v>0.4287089714398849</v>
+        <v>0.428708971439885</v>
       </c>
       <c r="E294">
         <v>0.5068466744365365</v>
@@ -5375,10 +5375,10 @@
         <v>0.8220698252031647</v>
       </c>
       <c r="D295">
-        <v>0.8752613499451456</v>
+        <v>0.8752613499451457</v>
       </c>
       <c r="E295">
-        <v>0.8449350019487506</v>
+        <v>0.8449350019487507</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,7 +5386,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.8506964173075905</v>
+        <v>0.8506964173075903</v>
       </c>
       <c r="C296">
         <v>0.8967957041345045</v>
@@ -5395,7 +5395,7 @@
         <v>0.9625550011795068</v>
       </c>
       <c r="E296">
-        <v>0.9284294076141248</v>
+        <v>0.928429407614125</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5403,13 +5403,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.7180844392568675</v>
+        <v>0.7180844392568676</v>
       </c>
       <c r="C297">
-        <v>0.75040683079392</v>
+        <v>0.7504068307939201</v>
       </c>
       <c r="D297">
-        <v>0.8392625264274512</v>
+        <v>0.8392625264274515</v>
       </c>
       <c r="E297">
         <v>0.8319797786753652</v>
@@ -5426,10 +5426,10 @@
         <v>0.846235646926443</v>
       </c>
       <c r="D298">
-        <v>0.9031204255655535</v>
+        <v>0.9031204255655537</v>
       </c>
       <c r="E298">
-        <v>0.8686497472434205</v>
+        <v>0.8686497472434206</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5463,7 +5463,7 @@
         <v>0.8752613499451457</v>
       </c>
       <c r="E300">
-        <v>0.8449350019487506</v>
+        <v>0.8449350019487508</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5471,13 +5471,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.7682933839306934</v>
+        <v>0.7682933839306932</v>
       </c>
       <c r="C301">
-        <v>0.7939464050431069</v>
+        <v>0.7939464050431071</v>
       </c>
       <c r="D301">
-        <v>0.8762134544633681</v>
+        <v>0.8762134544633682</v>
       </c>
       <c r="E301">
         <v>0.8617551578000641</v>
@@ -5494,7 +5494,7 @@
         <v>0.6635091185888804</v>
       </c>
       <c r="D302">
-        <v>0.7350193448185346</v>
+        <v>0.7350193448185349</v>
       </c>
       <c r="E302">
         <v>0.7435152882571793</v>
@@ -5511,7 +5511,7 @@
         <v>0.5509662070944356</v>
       </c>
       <c r="D303">
-        <v>0.6580300796532889</v>
+        <v>0.6580300796532892</v>
       </c>
       <c r="E303">
         <v>0.6799811711970907</v>
@@ -5525,7 +5525,7 @@
         <v>0.6670916093180956</v>
       </c>
       <c r="C304">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="D304">
         <v>0.7053676255946536</v>
@@ -5542,7 +5542,7 @@
         <v>0.6670916093180956</v>
       </c>
       <c r="C305">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="D305">
         <v>0.7053676255946537</v>
@@ -5562,7 +5562,7 @@
         <v>0.5642609629634957</v>
       </c>
       <c r="D306">
-        <v>0.6307593848714742</v>
+        <v>0.6307593848714743</v>
       </c>
       <c r="E306">
         <v>0.6427280808746105</v>
@@ -5576,13 +5576,13 @@
         <v>0.6670916093180956</v>
       </c>
       <c r="C307">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="D307">
         <v>0.7053676255946536</v>
       </c>
       <c r="E307">
-        <v>0.6925329878120966</v>
+        <v>0.6925329878120968</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5593,7 +5593,7 @@
         <v>0.5180820089288075</v>
       </c>
       <c r="C308">
-        <v>0.5054723358585116</v>
+        <v>0.5054723358585117</v>
       </c>
       <c r="D308">
         <v>0.5675218735806407</v>
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.6157305637990189</v>
+        <v>0.615730563799019</v>
       </c>
       <c r="C310">
         <v>0.5879307586962192</v>
@@ -5633,7 +5633,7 @@
         <v>0.6333196650937744</v>
       </c>
       <c r="E310">
-        <v>0.6391922958558357</v>
+        <v>0.6391922958558358</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5644,7 +5644,7 @@
         <v>0.1936871855440653</v>
       </c>
       <c r="C311">
-        <v>0.1822664317609922</v>
+        <v>0.1822664317609921</v>
       </c>
       <c r="D311">
         <v>0.2216779858474489</v>
@@ -5661,7 +5661,7 @@
         <v>0.2229585494420915</v>
       </c>
       <c r="C312">
-        <v>0.2150998924154484</v>
+        <v>0.2150998924154483</v>
       </c>
       <c r="D312">
         <v>0.2380241610623443</v>
@@ -5681,7 +5681,7 @@
         <v>0.1822664317609921</v>
       </c>
       <c r="D313">
-        <v>0.2216779858474489</v>
+        <v>0.221677985847449</v>
       </c>
       <c r="E313">
         <v>0.2517215603488202</v>
@@ -5701,7 +5701,7 @@
         <v>0.2216779858474489</v>
       </c>
       <c r="E314">
-        <v>0.2517215603488202</v>
+        <v>0.2517215603488203</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,10 +5709,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.8526114437684403</v>
+        <v>0.8526114437684406</v>
       </c>
       <c r="C315">
-        <v>0.9208358797446058</v>
+        <v>0.9208358797446059</v>
       </c>
       <c r="D315">
         <v>1.053707067000262</v>
@@ -5828,13 +5828,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.5650121335436531</v>
+        <v>0.5650121335436532</v>
       </c>
       <c r="C322">
         <v>0.5948987379232824</v>
       </c>
       <c r="D322">
-        <v>0.7731919991077113</v>
+        <v>0.7731919991077114</v>
       </c>
       <c r="E322">
         <v>0.8082605637186077</v>
@@ -5913,13 +5913,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.5277040080649488</v>
+        <v>0.5277040080649489</v>
       </c>
       <c r="C327">
         <v>0.536579415608983</v>
       </c>
       <c r="D327">
-        <v>0.6308205805733395</v>
+        <v>0.6308205805733396</v>
       </c>
       <c r="E327">
         <v>0.6558440379927283</v>
@@ -5930,13 +5930,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.4272474360489416</v>
+        <v>0.4272474360489417</v>
       </c>
       <c r="C328">
         <v>0.4377056278039804</v>
       </c>
       <c r="D328">
-        <v>0.5594076563127121</v>
+        <v>0.5594076563127122</v>
       </c>
       <c r="E328">
         <v>0.5949251690792832</v>
@@ -5953,7 +5953,7 @@
         <v>0.370185373059774</v>
       </c>
       <c r="D329">
-        <v>0.4771205426728419</v>
+        <v>0.477120542672842</v>
       </c>
       <c r="E329">
         <v>0.5118544987831019</v>
@@ -5973,7 +5973,7 @@
         <v>0.5594076563127122</v>
       </c>
       <c r="E330">
-        <v>0.5949251690792831</v>
+        <v>0.5949251690792832</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5987,10 +5987,10 @@
         <v>0.6065892512668859</v>
       </c>
       <c r="D331">
-        <v>0.7051281433419077</v>
+        <v>0.7051281433419078</v>
       </c>
       <c r="E331">
-        <v>0.7117952924777583</v>
+        <v>0.7117952924777584</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.5751580796102024</v>
+        <v>0.5751580796102025</v>
       </c>
       <c r="C332">
         <v>0.5924681335153749</v>
@@ -6007,7 +6007,7 @@
         <v>0.6990917943586548</v>
       </c>
       <c r="E332">
-        <v>0.7313037451507404</v>
+        <v>0.7313037451507405</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6024,7 +6024,7 @@
         <v>0.9820294173179438</v>
       </c>
       <c r="E333">
-        <v>0.9674656203321679</v>
+        <v>0.9674656203321681</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6041,7 +6041,7 @@
         <v>0.8553854115674661</v>
       </c>
       <c r="E334">
-        <v>0.8713995925712599</v>
+        <v>0.87139959257126</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.6619884447991874</v>
+        <v>0.6619884447991876</v>
       </c>
       <c r="C335">
         <v>0.6885064670568968</v>
       </c>
       <c r="D335">
-        <v>0.7932294760567175</v>
+        <v>0.7932294760567176</v>
       </c>
       <c r="E335">
         <v>0.8161678257386149</v>
@@ -6069,7 +6069,7 @@
         <v>0.4084199064036192</v>
       </c>
       <c r="C336">
-        <v>0.4201443873369356</v>
+        <v>0.4201443873369355</v>
       </c>
       <c r="D336">
         <v>0.545696037143192</v>
@@ -6103,13 +6103,13 @@
         <v>0.5841105896711114</v>
       </c>
       <c r="C338">
-        <v>0.5321361232516834</v>
+        <v>0.5321361232516835</v>
       </c>
       <c r="D338">
         <v>0.6184200935596562</v>
       </c>
       <c r="E338">
-        <v>0.7107853876106441</v>
+        <v>0.7107853876106439</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6126,7 +6126,7 @@
         <v>0.5197389387779456</v>
       </c>
       <c r="E339">
-        <v>0.5945528107719449</v>
+        <v>0.594552810771945</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6143,7 +6143,7 @@
         <v>0.3850980286278459</v>
       </c>
       <c r="E340">
-        <v>0.4559238985979915</v>
+        <v>0.4559238985979914</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6151,16 +6151,16 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.4559306286851222</v>
+        <v>0.4559306286851221</v>
       </c>
       <c r="C341">
-        <v>0.3868860850029183</v>
+        <v>0.3868860850029184</v>
       </c>
       <c r="D341">
         <v>0.4286457718809201</v>
       </c>
       <c r="E341">
-        <v>0.5014918111235199</v>
+        <v>0.5014918111235198</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>0.402577370875935</v>
       </c>
       <c r="E343">
-        <v>0.4886015718582468</v>
+        <v>0.4886015718582467</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6208,7 +6208,7 @@
         <v>0.332589110304118</v>
       </c>
       <c r="D344">
-        <v>0.385098028627846</v>
+        <v>0.3850980286278459</v>
       </c>
       <c r="E344">
         <v>0.4559238985979914</v>
@@ -6222,7 +6222,7 @@
         <v>0.2965874398693198</v>
       </c>
       <c r="C345">
-        <v>0.2413364169332262</v>
+        <v>0.2413364169332263</v>
       </c>
       <c r="D345">
         <v>0.2675841422853666</v>
@@ -6324,7 +6324,7 @@
         <v>0.2610020536422234</v>
       </c>
       <c r="C351">
-        <v>0.2102762379496533</v>
+        <v>0.2102762379496534</v>
       </c>
       <c r="D351">
         <v>0.2167790230501862</v>
@@ -6341,7 +6341,7 @@
         <v>0.2610020536422235</v>
       </c>
       <c r="C352">
-        <v>0.2102762379496533</v>
+        <v>0.2102762379496534</v>
       </c>
       <c r="D352">
         <v>0.2167790230501862</v>
@@ -6381,7 +6381,7 @@
         <v>0.3948751113251754</v>
       </c>
       <c r="E354">
-        <v>0.4501714825701371</v>
+        <v>0.450171482570137</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6406,7 +6406,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.4462845446048087</v>
+        <v>0.4462845446048086</v>
       </c>
       <c r="C356">
         <v>0.402493037267395</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.4462845446048087</v>
+        <v>0.4462845446048086</v>
       </c>
       <c r="C357">
         <v>0.402493037267395</v>
@@ -6432,7 +6432,7 @@
         <v>0.4588233981519467</v>
       </c>
       <c r="E357">
-        <v>0.5102268009135246</v>
+        <v>0.5102268009135245</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6449,7 +6449,7 @@
         <v>0.4588233981519467</v>
       </c>
       <c r="E358">
-        <v>0.5102268009135246</v>
+        <v>0.5102268009135245</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6494,10 +6494,10 @@
         <v>0.5664596409613313</v>
       </c>
       <c r="C361">
-        <v>0.5392236680858689</v>
+        <v>0.539223668085869</v>
       </c>
       <c r="D361">
-        <v>0.6419540817456607</v>
+        <v>0.6419540817456608</v>
       </c>
       <c r="E361">
         <v>0.6931478082079453</v>
@@ -6508,13 +6508,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.3929253194542746</v>
+        <v>0.3929253194542747</v>
       </c>
       <c r="C362">
         <v>0.3559650011779714</v>
       </c>
       <c r="D362">
-        <v>0.4408286044329134</v>
+        <v>0.4408286044329135</v>
       </c>
       <c r="E362">
         <v>0.4791392032072673</v>
@@ -6545,13 +6545,13 @@
         <v>0.6061116865908618</v>
       </c>
       <c r="C364">
-        <v>0.5865660449821363</v>
+        <v>0.5865660449821362</v>
       </c>
       <c r="D364">
         <v>0.694524192362865</v>
       </c>
       <c r="E364">
-        <v>0.702380951926142</v>
+        <v>0.7023809519261419</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>0.6061116865908618</v>
       </c>
       <c r="C365">
-        <v>0.5865660449821363</v>
+        <v>0.5865660449821362</v>
       </c>
       <c r="D365">
-        <v>0.6945241923628651</v>
+        <v>0.6945241923628652</v>
       </c>
       <c r="E365">
-        <v>0.702380951926142</v>
+        <v>0.7023809519261419</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6619,7 +6619,7 @@
         <v>0.5360918545251793</v>
       </c>
       <c r="E368">
-        <v>0.5602301006589672</v>
+        <v>0.5602301006589674</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6633,7 +6633,7 @@
         <v>0.3006373604463719</v>
       </c>
       <c r="D369">
-        <v>0.387186915141469</v>
+        <v>0.3871869151414691</v>
       </c>
       <c r="E369">
         <v>0.4271715337203045</v>
@@ -6650,7 +6650,7 @@
         <v>0.2175285073572326</v>
       </c>
       <c r="D370">
-        <v>0.2387212730402786</v>
+        <v>0.2387212730402785</v>
       </c>
       <c r="E370">
         <v>0.2405565514526135</v>
@@ -6661,7 +6661,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.2507173795771199</v>
+        <v>0.2507173795771198</v>
       </c>
       <c r="C371">
         <v>0.2175285073572326</v>
@@ -6735,10 +6735,10 @@
         <v>0.3763820872629011</v>
       </c>
       <c r="D375">
-        <v>0.5075223483008404</v>
+        <v>0.5075223483008405</v>
       </c>
       <c r="E375">
-        <v>0.598955836128602</v>
+        <v>0.5989558361286021</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6749,7 +6749,7 @@
         <v>0.3398485841616877</v>
       </c>
       <c r="C376">
-        <v>0.3102826610268861</v>
+        <v>0.3102826610268862</v>
       </c>
       <c r="D376">
         <v>0.4069644948578381</v>
@@ -6780,7 +6780,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.7074412302531664</v>
+        <v>0.7074412302531663</v>
       </c>
       <c r="C378">
         <v>0.6341992450992958</v>
@@ -6797,10 +6797,10 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.7074412302531664</v>
+        <v>0.7074412302531663</v>
       </c>
       <c r="C379">
-        <v>0.6341992450992958</v>
+        <v>0.6341992450992957</v>
       </c>
       <c r="D379">
         <v>0.7061479968483955</v>
@@ -6823,7 +6823,7 @@
         <v>0.6315518568825115</v>
       </c>
       <c r="E380">
-        <v>0.6841305129173241</v>
+        <v>0.6841305129173242</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>0.6315518568825115</v>
       </c>
       <c r="E381">
-        <v>0.6841305129173241</v>
+        <v>0.6841305129173242</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>0.4432306565981643</v>
       </c>
       <c r="E382">
-        <v>0.4966661935720471</v>
+        <v>0.4966661935720472</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,10 +6868,10 @@
         <v>0.3787309659112569</v>
       </c>
       <c r="C383">
-        <v>0.3625622614994721</v>
+        <v>0.362562261499472</v>
       </c>
       <c r="D383">
-        <v>0.4789208406384857</v>
+        <v>0.4789208406384856</v>
       </c>
       <c r="E383">
         <v>0.5620780155600528</v>
@@ -6905,10 +6905,10 @@
         <v>0.4645728189120265</v>
       </c>
       <c r="D385">
-        <v>0.6232467691831517</v>
+        <v>0.6232467691831518</v>
       </c>
       <c r="E385">
-        <v>0.6951799650343015</v>
+        <v>0.6951799650343016</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6922,7 +6922,7 @@
         <v>0.261093508675325</v>
       </c>
       <c r="D386">
-        <v>0.3515492042862024</v>
+        <v>0.3515492042862025</v>
       </c>
       <c r="E386">
         <v>0.4168881246127507</v>
@@ -6939,7 +6939,7 @@
         <v>0.261093508675325</v>
       </c>
       <c r="D387">
-        <v>0.3515492042862023</v>
+        <v>0.3515492042862024</v>
       </c>
       <c r="E387">
         <v>0.4168881246127507</v>
@@ -6953,13 +6953,13 @@
         <v>0.9326663339513196</v>
       </c>
       <c r="C388">
-        <v>0.7603421291097309</v>
+        <v>0.7603421291097306</v>
       </c>
       <c r="D388">
         <v>0.6097011676879697</v>
       </c>
       <c r="E388">
-        <v>0.5166525366821356</v>
+        <v>0.5166525366821354</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6976,7 +6976,7 @@
         <v>0.3392425110304104</v>
       </c>
       <c r="E389">
-        <v>0.2956781791778118</v>
+        <v>0.2956781791778119</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7004,13 +7004,13 @@
         <v>0.9326663339513197</v>
       </c>
       <c r="C391">
-        <v>0.7603421291097309</v>
+        <v>0.7603421291097306</v>
       </c>
       <c r="D391">
-        <v>0.6097011676879697</v>
+        <v>0.6097011676879698</v>
       </c>
       <c r="E391">
-        <v>0.5166525366821356</v>
+        <v>0.5166525366821354</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7024,10 +7024,10 @@
         <v>0.3663306402922527</v>
       </c>
       <c r="D392">
-        <v>0.3392425110304104</v>
+        <v>0.3392425110304105</v>
       </c>
       <c r="E392">
-        <v>0.2956781791778118</v>
+        <v>0.2956781791778119</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.4743661954876844</v>
+        <v>0.4743661954876843</v>
       </c>
       <c r="C394">
         <v>0.3998987070269002</v>
@@ -7069,7 +7069,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.3398546835283949</v>
+        <v>0.3398546835283948</v>
       </c>
       <c r="C395">
         <v>0.2913354256505231</v>
@@ -7089,7 +7089,7 @@
         <v>0.3398546835283948</v>
       </c>
       <c r="C396">
-        <v>0.2913354256505231</v>
+        <v>0.291335425650523</v>
       </c>
       <c r="D396">
         <v>0.2824365392964786</v>
@@ -7109,7 +7109,7 @@
         <v>0.4057487659730852</v>
       </c>
       <c r="D397">
-        <v>0.3606307972538435</v>
+        <v>0.3606307972538436</v>
       </c>
       <c r="E397">
         <v>0.3018065498749458</v>
@@ -7126,7 +7126,7 @@
         <v>0.4057487659730852</v>
       </c>
       <c r="D398">
-        <v>0.3606307972538435</v>
+        <v>0.3606307972538436</v>
       </c>
       <c r="E398">
         <v>0.3018065498749458</v>
@@ -7154,13 +7154,13 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.537703891098375</v>
+        <v>0.5377038910983751</v>
       </c>
       <c r="C400">
         <v>0.4358637655281951</v>
       </c>
       <c r="D400">
-        <v>0.3433684801652097</v>
+        <v>0.3433684801652096</v>
       </c>
       <c r="E400">
         <v>0.2540506087751078</v>
@@ -7188,16 +7188,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.4684935914763904</v>
+        <v>0.4684935914763905</v>
       </c>
       <c r="C402">
         <v>0.3784876350678585</v>
       </c>
       <c r="D402">
-        <v>0.2951869801214764</v>
+        <v>0.2951869801214763</v>
       </c>
       <c r="E402">
-        <v>0.2093552283861052</v>
+        <v>0.2093552283861051</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,13 +7205,13 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.537703891098375</v>
+        <v>0.5377038910983751</v>
       </c>
       <c r="C403">
         <v>0.4358637655281951</v>
       </c>
       <c r="D403">
-        <v>0.3433684801652097</v>
+        <v>0.3433684801652096</v>
       </c>
       <c r="E403">
         <v>0.2540506087751078</v>
@@ -7228,10 +7228,10 @@
         <v>0.4332868548823843</v>
       </c>
       <c r="D404">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E404">
-        <v>0.2369120365320314</v>
+        <v>0.2369120365320313</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7245,7 +7245,7 @@
         <v>0.4332868548823843</v>
       </c>
       <c r="D405">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E405">
         <v>0.2369120365320313</v>
@@ -7262,10 +7262,10 @@
         <v>0.4332868548823843</v>
       </c>
       <c r="D406">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E406">
-        <v>0.2369120365320314</v>
+        <v>0.2369120365320313</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7279,7 +7279,7 @@
         <v>0.3958409099563504</v>
       </c>
       <c r="D407">
-        <v>0.3104936224926097</v>
+        <v>0.3104936224926096</v>
       </c>
       <c r="E407">
         <v>0.2221127998110869</v>
@@ -7296,7 +7296,7 @@
         <v>0.3958409099563504</v>
       </c>
       <c r="D408">
-        <v>0.3104936224926097</v>
+        <v>0.3104936224926096</v>
       </c>
       <c r="E408">
         <v>0.2221127998110869</v>
@@ -7307,7 +7307,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>0.4770650017732638</v>
+        <v>0.4770650017732639</v>
       </c>
       <c r="C409">
         <v>0.3958409099563504</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>0.5272511805353433</v>
+        <v>0.5272511805353431</v>
       </c>
       <c r="C412">
         <v>0.475993432136339</v>
       </c>
       <c r="D412">
-        <v>0.5082254599317184</v>
+        <v>0.5082254599317183</v>
       </c>
       <c r="E412">
         <v>0.4845493756358485</v>
@@ -7375,7 +7375,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.329399601717786</v>
+        <v>0.3293996017177859</v>
       </c>
       <c r="C413">
         <v>0.2858171274164649</v>
@@ -7401,7 +7401,7 @@
         <v>0.5730493661793629</v>
       </c>
       <c r="E414">
-        <v>0.5489247368023509</v>
+        <v>0.5489247368023508</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.4296243988661082</v>
+        <v>0.4296243988661084</v>
       </c>
       <c r="C415">
-        <v>0.381992685211514</v>
+        <v>0.3819926852115141</v>
       </c>
       <c r="D415">
         <v>0.413136471055769</v>
       </c>
       <c r="E415">
-        <v>0.4077690854143662</v>
+        <v>0.4077690854143661</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.4296243988661082</v>
+        <v>0.4296243988661084</v>
       </c>
       <c r="C416">
-        <v>0.381992685211514</v>
+        <v>0.3819926852115141</v>
       </c>
       <c r="D416">
         <v>0.4131364710557691</v>
       </c>
       <c r="E416">
-        <v>0.4077690854143662</v>
+        <v>0.4077690854143661</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.4978078328350568</v>
+        <v>0.4978078328350569</v>
       </c>
       <c r="C418">
-        <v>0.4107780822821437</v>
+        <v>0.4107780822821438</v>
       </c>
       <c r="D418">
-        <v>0.3486567623713061</v>
+        <v>0.3486567623713059</v>
       </c>
       <c r="E418">
         <v>0.2916328609681842</v>
@@ -7486,7 +7486,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E419">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,7 +7497,7 @@
         <v>0.7130826756140649</v>
       </c>
       <c r="C420">
-        <v>0.608224786948936</v>
+        <v>0.6082247869489358</v>
       </c>
       <c r="D420">
         <v>0.5669409976438665</v>
@@ -7554,7 +7554,7 @@
         <v>0.5669409976438666</v>
       </c>
       <c r="E423">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7622,7 +7622,7 @@
         <v>0.5136937347950814</v>
       </c>
       <c r="E427">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7639,7 +7639,7 @@
         <v>0.5136937347950814</v>
       </c>
       <c r="E428">
-        <v>0.4856726037901604</v>
+        <v>0.4856726037901605</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E430">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E432">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7758,7 +7758,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E435">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7786,7 +7786,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="C437">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="D437">
         <v>0.3628230912880264</v>
@@ -7843,7 +7843,7 @@
         <v>0.3628230912880264</v>
       </c>
       <c r="E440">
-        <v>0.331546380031882</v>
+        <v>0.3315463800318819</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7854,7 +7854,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="C441">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="D441">
         <v>0.3628230912880264</v>
@@ -7939,13 +7939,13 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="C446">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="D446">
         <v>0.3628230912880264</v>
       </c>
       <c r="E446">
-        <v>0.331546380031882</v>
+        <v>0.3315463800318819</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7979,7 +7979,7 @@
         <v>0.3621724490659315</v>
       </c>
       <c r="E448">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.3036443077236687</v>
+        <v>0.3036443077236688</v>
       </c>
       <c r="C449">
         <v>0.2886935373697748</v>
       </c>
       <c r="D449">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E449">
         <v>0.4026936524961917</v>
@@ -8010,10 +8010,10 @@
         <v>0.2886935373697748</v>
       </c>
       <c r="D450">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E450">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.3036443077236688</v>
+        <v>0.3036443077236689</v>
       </c>
       <c r="C451">
         <v>0.2886935373697748</v>
       </c>
       <c r="D451">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E451">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8044,7 +8044,7 @@
         <v>0.2886935373697748</v>
       </c>
       <c r="D452">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E452">
         <v>0.4026936524961917</v>
@@ -8064,7 +8064,7 @@
         <v>0.3621724490659316</v>
       </c>
       <c r="E453">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8081,7 +8081,7 @@
         <v>0.4695433700841404</v>
       </c>
       <c r="E454">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8092,13 +8092,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C455">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D455">
         <v>0.4695433700841404</v>
       </c>
       <c r="E455">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003271</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8109,13 +8109,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C456">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D456">
         <v>0.4695433700841404</v>
       </c>
       <c r="E456">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8126,13 +8126,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C457">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D457">
         <v>0.4695433700841404</v>
       </c>
       <c r="E457">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003271</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8143,13 +8143,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C458">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D458">
         <v>0.4695433700841404</v>
       </c>
       <c r="E458">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8166,7 +8166,7 @@
         <v>0.4695433700841404</v>
       </c>
       <c r="E459">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C460">
-        <v>0.4389158051482981</v>
+        <v>0.4389158051482982</v>
       </c>
       <c r="D460">
         <v>0.4695433700841404</v>
@@ -8194,13 +8194,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C461">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D461">
         <v>0.4695433700841404</v>
       </c>
       <c r="E461">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8211,13 +8211,13 @@
         <v>0.4864885629388356</v>
       </c>
       <c r="C462">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="D462">
         <v>0.4695433700841404</v>
       </c>
       <c r="E462">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8262,7 +8262,7 @@
         <v>0.5284322543872585</v>
       </c>
       <c r="C465">
-        <v>0.4460619656441532</v>
+        <v>0.4460619656441533</v>
       </c>
       <c r="D465">
         <v>0.4145495415382552</v>
@@ -8296,13 +8296,13 @@
         <v>0.6157283037505972</v>
       </c>
       <c r="C467">
-        <v>0.5242044174272958</v>
+        <v>0.5242044174272957</v>
       </c>
       <c r="D467">
         <v>0.5136937347950814</v>
       </c>
       <c r="E467">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8319,7 +8319,7 @@
         <v>0.3621724490659315</v>
       </c>
       <c r="E468">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.3036443077236688</v>
+        <v>0.3036443077236689</v>
       </c>
       <c r="C470">
         <v>0.2886935373697748</v>
       </c>
       <c r="D470">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E470">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8370,7 +8370,7 @@
         <v>0.5136937347950814</v>
       </c>
       <c r="E471">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8387,7 +8387,7 @@
         <v>0.4695433700841404</v>
       </c>
       <c r="E472">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>0.3776917744958644</v>
       </c>
       <c r="C476">
-        <v>0.316512150227003</v>
+        <v>0.3165121502270031</v>
       </c>
       <c r="D476">
         <v>0.3122917981621115</v>
@@ -8486,7 +8486,7 @@
         <v>0.7270323551934766</v>
       </c>
       <c r="D478">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E478">
         <v>0.4772110972860918</v>
@@ -8503,7 +8503,7 @@
         <v>0.6432508219131571</v>
       </c>
       <c r="D479">
-        <v>0.5353793893032375</v>
+        <v>0.5353793893032374</v>
       </c>
       <c r="E479">
         <v>0.453122783522959</v>
@@ -8520,7 +8520,7 @@
         <v>0.6701116903568011</v>
       </c>
       <c r="D480">
-        <v>0.5385669366597463</v>
+        <v>0.5385669366597464</v>
       </c>
       <c r="E480">
         <v>0.4531712911604611</v>
@@ -8537,7 +8537,7 @@
         <v>0.7270323551934766</v>
       </c>
       <c r="D481">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E481">
         <v>0.4772110972860918</v>
@@ -8554,7 +8554,7 @@
         <v>0.7270323551934766</v>
       </c>
       <c r="D482">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E482">
         <v>0.4772110972860918</v>
@@ -8571,7 +8571,7 @@
         <v>0.7270323551934766</v>
       </c>
       <c r="D483">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E483">
         <v>0.4772110972860919</v>
@@ -8588,7 +8588,7 @@
         <v>0.7270323551934768</v>
       </c>
       <c r="D484">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E484">
         <v>0.4772110972860918</v>
@@ -8605,7 +8605,7 @@
         <v>0.670111690356801</v>
       </c>
       <c r="D485">
-        <v>0.5385669366597463</v>
+        <v>0.5385669366597464</v>
       </c>
       <c r="E485">
         <v>0.4531712911604611</v>
@@ -8622,7 +8622,7 @@
         <v>0.7022121237823485</v>
       </c>
       <c r="D486">
-        <v>0.563643107204602</v>
+        <v>0.5636431072046021</v>
       </c>
       <c r="E486">
         <v>0.4771271380173522</v>
@@ -8636,7 +8636,7 @@
         <v>0.6817409555155939</v>
       </c>
       <c r="C487">
-        <v>0.5542397770606828</v>
+        <v>0.5542397770606829</v>
       </c>
       <c r="D487">
         <v>0.4608373624130154</v>
@@ -8650,7 +8650,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.6728583194982414</v>
+        <v>0.6728583194982413</v>
       </c>
       <c r="C488">
         <v>0.5711028538935691</v>
@@ -8670,13 +8670,13 @@
         <v>0.6728583194982414</v>
       </c>
       <c r="C489">
-        <v>0.5711028538935692</v>
+        <v>0.5711028538935691</v>
       </c>
       <c r="D489">
         <v>0.490700027277299</v>
       </c>
       <c r="E489">
-        <v>0.3969576249451168</v>
+        <v>0.3969576249451169</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8772,7 +8772,7 @@
         <v>0.3600641679098052</v>
       </c>
       <c r="C495">
-        <v>0.306362071240026</v>
+        <v>0.3063620712400259</v>
       </c>
       <c r="D495">
         <v>0.3022172996737025</v>
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.5422915422904784</v>
+        <v>0.5422915422904783</v>
       </c>
       <c r="C498">
         <v>0.4611596643833664</v>
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>0.5422915422904784</v>
+        <v>0.5422915422904782</v>
       </c>
       <c r="C500">
         <v>0.4611596643833663</v>
@@ -8877,7 +8877,7 @@
         <v>0.5005564480688505</v>
       </c>
       <c r="D501">
-        <v>0.4571782604077164</v>
+        <v>0.4571782604077165</v>
       </c>
       <c r="E501">
         <v>0.3827365787582814</v>
